--- a/planning.xlsx
+++ b/planning.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Avancement</t>
   </si>
@@ -37,18 +37,6 @@
     <t>Membres</t>
   </si>
   <si>
-    <t>Nom1</t>
-  </si>
-  <si>
-    <t>Nom2</t>
-  </si>
-  <si>
-    <t>Nom3</t>
-  </si>
-  <si>
-    <t>Nom4</t>
-  </si>
-  <si>
     <t>Commentaire</t>
   </si>
   <si>
@@ -125,6 +113,15 @@
   </si>
   <si>
     <t>Commentaire sur la tâche 2</t>
+  </si>
+  <si>
+    <t>Dorian</t>
+  </si>
+  <si>
+    <t>Nils</t>
+  </si>
+  <si>
+    <t>Théo</t>
   </si>
 </sst>
 </file>
@@ -289,7 +286,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -311,6 +308,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Date" xfId="8"/>
@@ -706,7 +704,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -736,16 +734,16 @@
     <row r="2" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -757,59 +755,59 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="5">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G4" s="6">
         <v>0.5</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5">
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G5" s="6">
         <v>0.8</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1414,7 +1412,7 @@
   <dimension ref="B4:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1430,10 +1428,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
@@ -1441,13 +1439,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -1455,13 +1453,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
@@ -1469,27 +1467,25 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D8" s="9"/>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
@@ -1497,10 +1493,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
@@ -1508,10 +1504,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
@@ -1519,7 +1515,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22540" windowHeight="11430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22540" windowHeight="11430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Taches" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>Autre1</t>
-  </si>
-  <si>
     <t>Autre2</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Théo</t>
+  </si>
+  <si>
+    <t>GIT</t>
   </si>
 </sst>
 </file>
@@ -305,10 +305,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Date" xfId="8"/>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -720,16 +720,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -775,39 +775,39 @@
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="6">
         <v>0.5</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5">
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6">
         <v>0.8</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1431,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
@@ -1439,13 +1439,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -1453,13 +1453,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
@@ -1467,25 +1467,25 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
@@ -1493,10 +1493,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
@@ -1504,10 +1504,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
@@ -1515,7 +1515,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22540" windowHeight="11430" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22540" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Taches" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>Avancement</t>
   </si>
@@ -40,15 +40,6 @@
     <t>Commentaire</t>
   </si>
   <si>
-    <t>Exemple de tâche</t>
-  </si>
-  <si>
-    <t>Description de la sous tâche</t>
-  </si>
-  <si>
-    <t>Commentaire sur la tâche</t>
-  </si>
-  <si>
     <t>Tâches/Classe</t>
   </si>
   <si>
@@ -82,36 +73,9 @@
     <t>Jour</t>
   </si>
   <si>
-    <t>Lundi 17</t>
-  </si>
-  <si>
-    <t>Mardi 18</t>
-  </si>
-  <si>
-    <t>Merc. 19</t>
-  </si>
-  <si>
-    <t>Jeudi 20</t>
-  </si>
-  <si>
-    <t>Vend. 14</t>
-  </si>
-  <si>
-    <t>Vend. 21</t>
-  </si>
-  <si>
     <t>Nom de votre projet</t>
   </si>
   <si>
-    <t>Exemple de tâche 2</t>
-  </si>
-  <si>
-    <t>Description de la sous tâche 2</t>
-  </si>
-  <si>
-    <t>Commentaire sur la tâche 2</t>
-  </si>
-  <si>
     <t>Dorian</t>
   </si>
   <si>
@@ -122,6 +86,96 @@
   </si>
   <si>
     <t>GIT</t>
+  </si>
+  <si>
+    <t>Créer Dépôt</t>
+  </si>
+  <si>
+    <t>Créer Projet</t>
+  </si>
+  <si>
+    <t>Partage</t>
+  </si>
+  <si>
+    <t>TOUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone </t>
+  </si>
+  <si>
+    <t>Mardi 08</t>
+  </si>
+  <si>
+    <t>Lundi 14</t>
+  </si>
+  <si>
+    <t>Mardi 15</t>
+  </si>
+  <si>
+    <t>Merc. 16</t>
+  </si>
+  <si>
+    <t>Jeudi 19</t>
+  </si>
+  <si>
+    <t>Vend. 20</t>
+  </si>
+  <si>
+    <t>Fenetre</t>
+  </si>
+  <si>
+    <t>implémentation</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Conseil</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Pompe</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
+  </si>
+  <si>
+    <t>AquaGuardian (main)</t>
+  </si>
+  <si>
+    <t>création du fichier de la classe</t>
+  </si>
+  <si>
+    <t>Mardi 09</t>
+  </si>
+  <si>
+    <t>Mardi 10</t>
+  </si>
+  <si>
+    <t>Mardi 11</t>
+  </si>
+  <si>
+    <t>Mardi 12</t>
+  </si>
+  <si>
+    <t>Mardi 13</t>
+  </si>
+  <si>
+    <t>Mardi 14</t>
+  </si>
+  <si>
+    <t>Mardi 16</t>
+  </si>
+  <si>
+    <t>''</t>
   </si>
 </sst>
 </file>
@@ -286,12 +340,9 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,9 +356,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -703,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,605 +778,773 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="5"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="5"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="5"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="5"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="5"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="5"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="5"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="5"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="5"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="5"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="5"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:H4"/>
@@ -1411,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1421,17 +1647,17 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
@@ -1439,13 +1665,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -1453,13 +1679,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
@@ -1467,25 +1693,27 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
@@ -1493,10 +1721,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
@@ -1504,10 +1732,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
@@ -1515,8 +1743,9 @@
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="1">

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Avancement</t>
   </si>
@@ -121,61 +121,19 @@
     <t>Vend. 20</t>
   </si>
   <si>
-    <t>Fenetre</t>
-  </si>
-  <si>
     <t>implémentation</t>
   </si>
   <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Conseil</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>Pompe</t>
-  </si>
-  <si>
     <t>Irrigation</t>
   </si>
   <si>
-    <t>AquaGuardian (main)</t>
-  </si>
-  <si>
-    <t>création du fichier de la classe</t>
-  </si>
-  <si>
-    <t>Mardi 09</t>
-  </si>
-  <si>
-    <t>Mardi 10</t>
-  </si>
-  <si>
-    <t>Mardi 11</t>
-  </si>
-  <si>
-    <t>Mardi 12</t>
-  </si>
-  <si>
-    <t>Mardi 13</t>
-  </si>
-  <si>
-    <t>Mardi 14</t>
-  </si>
-  <si>
-    <t>Mardi 16</t>
-  </si>
-  <si>
-    <t>''</t>
+    <t>Ensemble des classes</t>
+  </si>
+  <si>
+    <t>création du fichier de chaque classe</t>
+  </si>
+  <si>
+    <t>arrosageParcelles()</t>
   </si>
 </sst>
 </file>
@@ -762,7 +720,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -914,13 +872,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
@@ -940,211 +898,87 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -11,7 +11,7 @@
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Taches!$A$3:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Taches!$A$3:$H$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
   <si>
     <t>Avancement</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>Autre2</t>
-  </si>
-  <si>
     <t>Autre3</t>
   </si>
   <si>
@@ -121,19 +118,221 @@
     <t>Vend. 20</t>
   </si>
   <si>
+    <t>Fenetre</t>
+  </si>
+  <si>
     <t>implémentation</t>
   </si>
   <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Conseil</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Pompe</t>
+  </si>
+  <si>
     <t>Irrigation</t>
   </si>
   <si>
     <t>Ensemble des classes</t>
   </si>
   <si>
-    <t>création du fichier de chaque classe</t>
-  </si>
-  <si>
-    <t>arrosageParcelles()</t>
+    <t>addParcelle()</t>
+  </si>
+  <si>
+    <t>askMeteo()</t>
+  </si>
+  <si>
+    <t>notifWater()</t>
+  </si>
+  <si>
+    <t>Arrosage</t>
+  </si>
+  <si>
+    <t>activerPompe()</t>
+  </si>
+  <si>
+    <t>Parcelle</t>
+  </si>
+  <si>
+    <t>rajouterPlante()</t>
+  </si>
+  <si>
+    <t>Plantes</t>
+  </si>
+  <si>
+    <t>affiche()</t>
+  </si>
+  <si>
+    <t>Glossaire</t>
+  </si>
+  <si>
+    <r>
+      <t>sort(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pair&lt;String, String&gt;[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>getInfos(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>affiche(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plante[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>arroserParcelle(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parcelle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Calendrier</t>
+  </si>
+  <si>
+    <t>refreshMeteo()</t>
+  </si>
+  <si>
+    <t>sendTo()</t>
+  </si>
+  <si>
+    <t>Météo</t>
+  </si>
+  <si>
+    <t>affichePage()</t>
+  </si>
+  <si>
+    <t>arroserParcelle(Parcelle)</t>
+  </si>
+  <si>
+    <t>placement des attributs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>mise en place des héritage et extension</t>
+  </si>
+  <si>
+    <t>reflexion sur comment fonctionne les pompes</t>
+  </si>
+  <si>
+    <t>récupérer les données nécéssaire sur les plantes</t>
+  </si>
+  <si>
+    <t>initialisation (pour remplir les données sur les plantes)</t>
+  </si>
+  <si>
+    <t>recherche d'API</t>
+  </si>
+  <si>
+    <t>reflexion sur l'utilisation de l'API</t>
+  </si>
+  <si>
+    <t>gestion de l'affichage (interface)</t>
+  </si>
+  <si>
+    <t>faire la liste des pages nécéssaires</t>
+  </si>
+  <si>
+    <t>recherches</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Rédaction du planning</t>
   </si>
 </sst>
 </file>
@@ -143,7 +342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +412,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -240,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -278,6 +484,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -298,7 +515,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -319,6 +536,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,16 +935,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="2" width="37.08984375" customWidth="1"/>
+    <col min="2" max="2" width="46.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.1796875" customWidth="1"/>
     <col min="4" max="4" width="10.81640625" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" customWidth="1"/>
@@ -737,7 +955,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -771,170 +989,198 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="12"/>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="C7" s="12"/>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
@@ -942,9 +1188,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
@@ -952,9 +1202,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
@@ -962,39 +1216,61 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
@@ -1002,119 +1278,189 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -1122,39 +1468,61 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -1162,9 +1530,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
@@ -1172,129 +1544,215 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="4">
+        <v>8</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4">
+        <v>3</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4">
+        <v>8</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="5"/>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="5"/>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4">
+        <v>5</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="5"/>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="5"/>
@@ -1302,91 +1760,513 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="5"/>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="5"/>
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="4">
+        <v>5</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="5"/>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="5"/>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="5"/>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="5"/>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="4">
+        <v>8</v>
+      </c>
       <c r="F56" s="4"/>
       <c r="G56" s="5"/>
       <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="4">
+        <v>5</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="4">
+        <v>5</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="4">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:H4"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:G56">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="G5:G89">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1399,7 +2279,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E56">
+  <conditionalFormatting sqref="E5:E89">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="13"/>
+        <cfvo type="num" val="55"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{73B5C04B-BE13-4DC0-B404-1EFE9CC0E541}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -1431,7 +2337,24 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G4:G56</xm:sqref>
+          <xm:sqref>G5:G89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{73B5C04B-BE13-4DC0-B404-1EFE9CC0E541}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1439,27 +2362,27 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
+            <xm:f>DATA!$F$5:$F$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D89</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
             <xm:f>DATA!$B$5:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E56</xm:sqref>
+          <xm:sqref>E4:E89</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$D$5:$D$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F56</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATA!$F$5:$F$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4:D56</xm:sqref>
+          <xm:sqref>F4:F89</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$H$5:$H$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H56</xm:sqref>
+          <xm:sqref>H4:H89</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1472,7 +2395,7 @@
   <dimension ref="B4:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1491,7 +2414,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
@@ -1499,13 +2422,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -1513,13 +2436,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
@@ -1527,13 +2450,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -1541,13 +2464,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
@@ -1555,10 +2478,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
@@ -1566,10 +2489,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
@@ -1577,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="8"/>
     </row>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
   <si>
     <t>Avancement</t>
   </si>
@@ -148,7 +148,7 @@
     <t>Ensemble des classes</t>
   </si>
   <si>
-    <t>addParcelle()</t>
+    <t>arrosageParcelles()</t>
   </si>
   <si>
     <t>askMeteo()</t>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>Parcelle</t>
-  </si>
-  <si>
-    <t>rajouterPlante()</t>
   </si>
   <si>
     <t>Plantes</t>
@@ -293,9 +290,6 @@
     <t>affichePage()</t>
   </si>
   <si>
-    <t>arroserParcelle(Parcelle)</t>
-  </si>
-  <si>
     <t>placement des attributs</t>
   </si>
   <si>
@@ -333,6 +327,81 @@
   </si>
   <si>
     <t>Rédaction du planning</t>
+  </si>
+  <si>
+    <r>
+      <t>addParcelle(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parcelle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>peutRajouterPlante(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) (bool)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rajouterPlante(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -935,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,14 +1063,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="4">
         <v>8</v>
@@ -1141,7 +1210,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="4" t="s">
@@ -1157,10 +1226,10 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
@@ -1175,13 +1244,15 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>34</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
@@ -1189,13 +1260,15 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
@@ -1209,7 +1282,9 @@
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
@@ -1223,7 +1298,9 @@
       <c r="D15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4">
+        <v>13</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
@@ -1233,7 +1310,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="4" t="s">
@@ -1249,7 +1326,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="4" t="s">
@@ -1265,35 +1342,39 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4">
+        <v>21</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1311,14 +1392,14 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="4">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
@@ -1327,13 +1408,15 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4">
+        <v>8</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
@@ -1343,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="4" t="s">
@@ -1359,7 +1442,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="4" t="s">
@@ -1375,7 +1458,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="4" t="s">
@@ -1397,17 +1480,19 @@
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4">
+        <v>13</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
@@ -1423,7 +1508,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="4" t="s">
@@ -1439,7 +1524,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="4" t="s">
@@ -1455,35 +1540,39 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4">
+        <v>13</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1492,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -1501,14 +1590,14 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
@@ -1517,92 +1606,100 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4">
+        <v>21</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>53</v>
+      <c r="B35" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4">
+        <v>8</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="9" t="s">
-        <v>66</v>
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="E38" s="4">
+        <v>5</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E39" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>16</v>
@@ -1613,41 +1710,39 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E40" s="4">
-        <v>3</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>61</v>
       </c>
@@ -1665,39 +1760,39 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B44" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="5"/>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>61</v>
       </c>
@@ -1706,7 +1801,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="5"/>
@@ -1715,14 +1810,14 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="5"/>
@@ -1731,14 +1826,14 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" s="4">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="5"/>
@@ -1747,35 +1842,39 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4">
+        <v>8</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="5"/>
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="5"/>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>61</v>
       </c>
@@ -1784,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="E50" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="5"/>
@@ -1793,14 +1892,14 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="5"/>
@@ -1809,37 +1908,39 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="5"/>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="5"/>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>61</v>
       </c>
@@ -1857,48 +1958,48 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="5"/>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B56" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E56" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="5"/>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="5"/>
@@ -1907,46 +2008,48 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="5"/>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="5"/>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="5"/>
@@ -1955,14 +2058,14 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="5"/>
@@ -1970,33 +2073,29 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>49</v>
+      <c r="B62" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="E62" s="4">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G62" s="5"/>
       <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
-      <c r="B63" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="4">
-        <v>8</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
       <c r="G63" s="5"/>
       <c r="H63" s="4"/>
     </row>
@@ -2250,22 +2349,12 @@
       <c r="G88" s="5"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="4"/>
-    </row>
   </sheetData>
   <autoFilter ref="A3:H4"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:G89">
+  <conditionalFormatting sqref="G5:G88">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2279,7 +2368,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E89">
+  <conditionalFormatting sqref="E5:E88">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -2337,7 +2426,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G89</xm:sqref>
+          <xm:sqref>G5:G88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{73B5C04B-BE13-4DC0-B404-1EFE9CC0E541}">
@@ -2364,25 +2453,25 @@
           <x14:formula1>
             <xm:f>DATA!$F$5:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D89</xm:sqref>
+          <xm:sqref>D4:D88</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$B$5:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E89</xm:sqref>
+          <xm:sqref>E4:E88</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$D$5:$D$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F89</xm:sqref>
+          <xm:sqref>F4:F88</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$H$5:$H$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H89</xm:sqref>
+          <xm:sqref>H4:H88</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2478,7 +2567,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>29</v>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="88">
   <si>
     <t>Avancement</t>
   </si>
@@ -402,6 +402,45 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Page_Accueil</t>
+  </si>
+  <si>
+    <t>Page_Plante</t>
+  </si>
+  <si>
+    <t>JavaDoc</t>
+  </si>
+  <si>
+    <t>généré la JavaDoc</t>
+  </si>
+  <si>
+    <t>Page_Glossaire</t>
+  </si>
+  <si>
+    <t>Page_ChoixParcelle</t>
+  </si>
+  <si>
+    <t>Page_CréationParcelle</t>
+  </si>
+  <si>
+    <t>Page_ChoixModePlantation</t>
+  </si>
+  <si>
+    <t>Page_PlantationRapide</t>
+  </si>
+  <si>
+    <t>Page_Météo</t>
+  </si>
+  <si>
+    <t>faire le lien avec le contenu (le modèle)</t>
+  </si>
+  <si>
+    <t>réaliser l'affichage (interface)</t>
+  </si>
+  <si>
+    <t>Page_PlantationAssisté</t>
   </si>
 </sst>
 </file>
@@ -1004,15 +1043,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.1796875" customWidth="1"/>
     <col min="4" max="4" width="10.81640625" customWidth="1"/>
@@ -2090,192 +2129,328 @@
       <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="4">
+        <v>5</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="5"/>
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="4">
+        <v>21</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="5"/>
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="4">
+        <v>8</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="5"/>
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4">
+        <v>13</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="5"/>
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="4">
+        <v>13</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="5"/>
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="4">
+        <v>21</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="G68" s="5"/>
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="D69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="4">
+        <v>13</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="D70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="4">
+        <v>21</v>
+      </c>
       <c r="F70" s="4"/>
       <c r="G70" s="5"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="4">
+        <v>5</v>
+      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="5"/>
       <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="4">
+        <v>8</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="5"/>
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="4">
+        <v>5</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="5"/>
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="4">
+        <v>5</v>
+      </c>
       <c r="F74" s="4"/>
       <c r="G74" s="5"/>
       <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="4">
+        <v>5</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="5"/>
       <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="D76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="4">
+        <v>8</v>
+      </c>
       <c r="F76" s="4"/>
       <c r="G76" s="5"/>
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="4">
+        <v>13</v>
+      </c>
       <c r="F77" s="4"/>
       <c r="G77" s="5"/>
       <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="D78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="4">
+        <v>8</v>
+      </c>
       <c r="F78" s="4"/>
       <c r="G78" s="5"/>
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="4">
+        <v>13</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="5"/>
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="D80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="4">
+        <v>13</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="5"/>
       <c r="H80" s="4"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="4">
+        <v>8</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G81" s="5"/>
       <c r="H81" s="4"/>
     </row>
@@ -2290,12 +2465,6 @@
       <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
       <c r="G83" s="5"/>
       <c r="H83" s="4"/>
     </row>
@@ -2340,21 +2509,85 @@
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
       <c r="G88" s="5"/>
       <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:H4"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:G88">
+  <conditionalFormatting sqref="G5:G95">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2368,7 +2601,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E88">
+  <conditionalFormatting sqref="E89:E95 E84:E87 E5:E82">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -2426,7 +2659,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G88</xm:sqref>
+          <xm:sqref>G5:G95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{73B5C04B-BE13-4DC0-B404-1EFE9CC0E541}">
@@ -2453,25 +2686,25 @@
           <x14:formula1>
             <xm:f>DATA!$F$5:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D88</xm:sqref>
+          <xm:sqref>D89:D95 D4:D82 D84:D87</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$B$5:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E88</xm:sqref>
+          <xm:sqref>E89:E95 E4:E82 E84:E87</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$D$5:$D$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F88</xm:sqref>
+          <xm:sqref>F89:F95 F4:F82 F84:F87</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$H$5:$H$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H88</xm:sqref>
+          <xm:sqref>H4:H95</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22540" windowHeight="11430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22540" windowHeight="11430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Taches" sheetId="1" r:id="rId1"/>
-    <sheet name="DATA" sheetId="2" r:id="rId2"/>
+    <sheet name="Calc" sheetId="3" r:id="rId2"/>
+    <sheet name="DATA" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Taches!$A$3:$H$5</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="91">
   <si>
     <t>Avancement</t>
   </si>
@@ -441,6 +442,15 @@
   </si>
   <si>
     <t>Page_PlantationAssisté</t>
+  </si>
+  <si>
+    <t>Théo Tot</t>
+  </si>
+  <si>
+    <t>Nils Tot</t>
+  </si>
+  <si>
+    <t>Dorian Tot</t>
   </si>
 </sst>
 </file>
@@ -528,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +560,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +645,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -651,6 +673,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Date" xfId="8"/>
@@ -1043,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1118,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="5">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>25</v>
@@ -1258,8 +1282,12 @@
       <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1358,7 +1386,9 @@
       <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
@@ -1408,7 +1438,9 @@
       <c r="E19" s="4">
         <v>3</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
     </row>
@@ -1474,7 +1506,9 @@
       <c r="E23" s="4">
         <v>3</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="4"/>
     </row>
@@ -1540,7 +1574,9 @@
       <c r="E27" s="4">
         <v>8</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
     </row>
@@ -1606,7 +1642,9 @@
       <c r="E31" s="4">
         <v>3</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
     </row>
@@ -1688,7 +1726,9 @@
       <c r="E36" s="4">
         <v>3</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
     </row>
@@ -1725,7 +1765,9 @@
       <c r="F38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="5"/>
+      <c r="G38" s="5">
+        <v>0.5</v>
+      </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -1743,7 +1785,9 @@
       <c r="F39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="5"/>
+      <c r="G39" s="5">
+        <v>0.25</v>
+      </c>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -1776,8 +1820,12 @@
       <c r="E41" s="4">
         <v>3</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
+      <c r="F41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -1826,8 +1874,12 @@
       <c r="E44" s="4">
         <v>2</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5"/>
+      <c r="F44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -1908,8 +1960,12 @@
       <c r="E49" s="4">
         <v>2</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="5"/>
+      <c r="F49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -1974,8 +2030,12 @@
       <c r="E53" s="4">
         <v>3</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="5"/>
+      <c r="F53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1</v>
+      </c>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -2024,8 +2084,12 @@
       <c r="E56" s="4">
         <v>3</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
+      <c r="F56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1</v>
+      </c>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -2074,8 +2138,12 @@
       <c r="E59" s="4">
         <v>2</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="5"/>
+      <c r="F59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -2125,7 +2193,9 @@
       <c r="F62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="5"/>
+      <c r="G62" s="5">
+        <v>1</v>
+      </c>
       <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -2465,6 +2535,12 @@
       <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
       <c r="G83" s="5"/>
       <c r="H83" s="4"/>
     </row>
@@ -2509,6 +2585,12 @@
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
       <c r="G88" s="5"/>
       <c r="H88" s="4"/>
     </row>
@@ -2562,32 +2644,12 @@
       <c r="G93" s="5"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="4"/>
-    </row>
   </sheetData>
   <autoFilter ref="A3:H4"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:G95">
+  <conditionalFormatting sqref="G5:G93">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2601,7 +2663,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89:E95 E84:E87 E5:E82">
+  <conditionalFormatting sqref="E5:E93">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -2659,7 +2721,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G95</xm:sqref>
+          <xm:sqref>G5:G93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{73B5C04B-BE13-4DC0-B404-1EFE9CC0E541}">
@@ -2686,25 +2748,25 @@
           <x14:formula1>
             <xm:f>DATA!$F$5:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D89:D95 D4:D82 D84:D87</xm:sqref>
+          <xm:sqref>D87:D93 D4:D82 D83:D86</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$B$5:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E89:E95 E4:E82 E84:E87</xm:sqref>
+          <xm:sqref>E87:E93 E4:E82 E83:E86</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$D$5:$D$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F89:F95 F4:F82 F84:F87</xm:sqref>
+          <xm:sqref>F87:F93 F4:F82 F83:F86</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$H$5:$H$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H95</xm:sqref>
+          <xm:sqref>H4:H93</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2713,6 +2775,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <f>IF(OR(Taches!F4="Théo",Taches!F4="TOUS"),Taches!E4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1">
+        <f>IF(OR(Taches!F4="Nils",Taches!F4="TOUS"),Taches!E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1">
+        <f>IF(OR(Taches!F4="Dorian",Taches!F4="TOUS"),Taches!E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f>IF(OR(Taches!F5="Théo",Taches!F5="TOUS"),Taches!E5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <f>SUM(A1:A91)</f>
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <f>IF(OR(Taches!F5="Nils",Taches!F5="TOUS"),Taches!E5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <f>SUM(C1:C91)</f>
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <f>IF(OR(Taches!F5="Dorian",Taches!F5="TOUS"),Taches!E5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <f>SUM(E1:E91)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>IF(OR(Taches!F6="Théo",Taches!F6="TOUS"),Taches!E6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>IF(OR(Taches!F6="Nils",Taches!F6="TOUS"),Taches!E6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>IF(OR(Taches!F6="Dorian",Taches!F6="TOUS"),Taches!E6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f>IF(OR(Taches!F7="Théo",Taches!F7="TOUS"),Taches!E7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>IF(OR(Taches!F7="Nils",Taches!F7="TOUS"),Taches!E7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>IF(OR(Taches!F7="Dorian",Taches!F7="TOUS"),Taches!E7,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f>IF(OR(Taches!F8="Théo",Taches!F8="TOUS"),Taches!E8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>IF(OR(Taches!F8="Nils",Taches!F8="TOUS"),Taches!E8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>IF(OR(Taches!F8="Dorian",Taches!F8="TOUS"),Taches!E8,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f>IF(OR(Taches!F9="Théo",Taches!F9="TOUS"),Taches!E9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>IF(OR(Taches!F9="Nils",Taches!F9="TOUS"),Taches!E9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>IF(OR(Taches!F9="Dorian",Taches!F9="TOUS"),Taches!E9,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f>IF(OR(Taches!F10="Théo",Taches!F10="TOUS"),Taches!E10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>IF(OR(Taches!F10="Nils",Taches!F10="TOUS"),Taches!E10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>IF(OR(Taches!F10="Dorian",Taches!F10="TOUS"),Taches!E10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f>IF(OR(Taches!F11="Théo",Taches!F11="TOUS"),Taches!E11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>IF(OR(Taches!F11="Nils",Taches!F11="TOUS"),Taches!E11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>IF(OR(Taches!F11="Dorian",Taches!F11="TOUS"),Taches!E11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f>IF(OR(Taches!F12="Théo",Taches!F12="TOUS"),Taches!E12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>IF(OR(Taches!F12="Nils",Taches!F12="TOUS"),Taches!E12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>IF(OR(Taches!F12="Dorian",Taches!F12="TOUS"),Taches!E12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f>IF(OR(Taches!F13="Théo",Taches!F13="TOUS"),Taches!E13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>IF(OR(Taches!F13="Nils",Taches!F13="TOUS"),Taches!E13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>IF(OR(Taches!F13="Dorian",Taches!F13="TOUS"),Taches!E13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f>IF(OR(Taches!F14="Théo",Taches!F14="TOUS"),Taches!E14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>IF(OR(Taches!F14="Nils",Taches!F14="TOUS"),Taches!E14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>IF(OR(Taches!F14="Dorian",Taches!F14="TOUS"),Taches!E14,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f>IF(OR(Taches!F15="Théo",Taches!F15="TOUS"),Taches!E15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>IF(OR(Taches!F15="Nils",Taches!F15="TOUS"),Taches!E15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>IF(OR(Taches!F15="Dorian",Taches!F15="TOUS"),Taches!E15,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f>IF(OR(Taches!F16="Théo",Taches!F16="TOUS"),Taches!E16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>IF(OR(Taches!F16="Nils",Taches!F16="TOUS"),Taches!E16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>IF(OR(Taches!F16="Dorian",Taches!F16="TOUS"),Taches!E16,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f>IF(OR(Taches!F17="Théo",Taches!F17="TOUS"),Taches!E17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>IF(OR(Taches!F17="Nils",Taches!F17="TOUS"),Taches!E17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>IF(OR(Taches!F17="Dorian",Taches!F17="TOUS"),Taches!E17,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f>IF(OR(Taches!F18="Théo",Taches!F18="TOUS"),Taches!E18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>IF(OR(Taches!F18="Nils",Taches!F18="TOUS"),Taches!E18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>IF(OR(Taches!F18="Dorian",Taches!F18="TOUS"),Taches!E18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f>IF(OR(Taches!F19="Théo",Taches!F19="TOUS"),Taches!E19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>IF(OR(Taches!F19="Nils",Taches!F19="TOUS"),Taches!E19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>IF(OR(Taches!F19="Dorian",Taches!F19="TOUS"),Taches!E19,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f>IF(OR(Taches!F20="Théo",Taches!F20="TOUS"),Taches!E20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>IF(OR(Taches!F20="Nils",Taches!F20="TOUS"),Taches!E20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>IF(OR(Taches!F20="Dorian",Taches!F20="TOUS"),Taches!E20,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f>IF(OR(Taches!F21="Théo",Taches!F21="TOUS"),Taches!E21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>IF(OR(Taches!F21="Nils",Taches!F21="TOUS"),Taches!E21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>IF(OR(Taches!F21="Dorian",Taches!F21="TOUS"),Taches!E21,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f>IF(OR(Taches!F22="Théo",Taches!F22="TOUS"),Taches!E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>IF(OR(Taches!F22="Nils",Taches!F22="TOUS"),Taches!E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>IF(OR(Taches!F22="Dorian",Taches!F22="TOUS"),Taches!E22,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f>IF(OR(Taches!F23="Théo",Taches!F23="TOUS"),Taches!E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>IF(OR(Taches!F23="Nils",Taches!F23="TOUS"),Taches!E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>IF(OR(Taches!F23="Dorian",Taches!F23="TOUS"),Taches!E23,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f>IF(OR(Taches!F24="Théo",Taches!F24="TOUS"),Taches!E24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>IF(OR(Taches!F24="Nils",Taches!F24="TOUS"),Taches!E24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>IF(OR(Taches!F24="Dorian",Taches!F24="TOUS"),Taches!E24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f>IF(OR(Taches!F25="Théo",Taches!F25="TOUS"),Taches!E25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>IF(OR(Taches!F25="Nils",Taches!F25="TOUS"),Taches!E25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>IF(OR(Taches!F25="Dorian",Taches!F25="TOUS"),Taches!E25,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f>IF(OR(Taches!F26="Théo",Taches!F26="TOUS"),Taches!E26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>IF(OR(Taches!F26="Nils",Taches!F26="TOUS"),Taches!E26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>IF(OR(Taches!F26="Dorian",Taches!F26="TOUS"),Taches!E26,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f>IF(OR(Taches!F27="Théo",Taches!F27="TOUS"),Taches!E27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>IF(OR(Taches!F27="Nils",Taches!F27="TOUS"),Taches!E27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>IF(OR(Taches!F27="Dorian",Taches!F27="TOUS"),Taches!E27,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f>IF(OR(Taches!F28="Théo",Taches!F28="TOUS"),Taches!E28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>IF(OR(Taches!F28="Nils",Taches!F28="TOUS"),Taches!E28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>IF(OR(Taches!F28="Dorian",Taches!F28="TOUS"),Taches!E28,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f>IF(OR(Taches!F29="Théo",Taches!F29="TOUS"),Taches!E29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>IF(OR(Taches!F29="Nils",Taches!F29="TOUS"),Taches!E29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>IF(OR(Taches!F29="Dorian",Taches!F29="TOUS"),Taches!E29,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f>IF(OR(Taches!F30="Théo",Taches!F30="TOUS"),Taches!E30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f>IF(OR(Taches!F30="Nils",Taches!F30="TOUS"),Taches!E30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>IF(OR(Taches!F30="Dorian",Taches!F30="TOUS"),Taches!E30,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f>IF(OR(Taches!F31="Théo",Taches!F31="TOUS"),Taches!E31,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f>IF(OR(Taches!F31="Nils",Taches!F31="TOUS"),Taches!E31,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>IF(OR(Taches!F31="Dorian",Taches!F31="TOUS"),Taches!E31,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f>IF(OR(Taches!F32="Théo",Taches!F32="TOUS"),Taches!E32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f>IF(OR(Taches!F32="Nils",Taches!F32="TOUS"),Taches!E32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>IF(OR(Taches!F32="Dorian",Taches!F32="TOUS"),Taches!E32,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f>IF(OR(Taches!F33="Théo",Taches!F33="TOUS"),Taches!E33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f>IF(OR(Taches!F33="Nils",Taches!F33="TOUS"),Taches!E33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>IF(OR(Taches!F33="Dorian",Taches!F33="TOUS"),Taches!E33,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f>IF(OR(Taches!F34="Théo",Taches!F34="TOUS"),Taches!E34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f>IF(OR(Taches!F34="Nils",Taches!F34="TOUS"),Taches!E34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f>IF(OR(Taches!F34="Dorian",Taches!F34="TOUS"),Taches!E34,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f>IF(OR(Taches!F35="Théo",Taches!F35="TOUS"),Taches!E35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f>IF(OR(Taches!F35="Nils",Taches!F35="TOUS"),Taches!E35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>IF(OR(Taches!F35="Dorian",Taches!F35="TOUS"),Taches!E35,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f>IF(OR(Taches!F36="Théo",Taches!F36="TOUS"),Taches!E36,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>IF(OR(Taches!F36="Nils",Taches!F36="TOUS"),Taches!E36,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>IF(OR(Taches!F36="Dorian",Taches!F36="TOUS"),Taches!E36,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f>IF(OR(Taches!F37="Théo",Taches!F37="TOUS"),Taches!E37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>IF(OR(Taches!F37="Nils",Taches!F37="TOUS"),Taches!E37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f>IF(OR(Taches!F37="Dorian",Taches!F37="TOUS"),Taches!E37,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f>IF(OR(Taches!F38="Théo",Taches!F38="TOUS"),Taches!E38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>IF(OR(Taches!F38="Nils",Taches!F38="TOUS"),Taches!E38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>IF(OR(Taches!F38="Dorian",Taches!F38="TOUS"),Taches!E38,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f>IF(OR(Taches!F39="Théo",Taches!F39="TOUS"),Taches!E39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>IF(OR(Taches!F39="Nils",Taches!F39="TOUS"),Taches!E39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>IF(OR(Taches!F39="Dorian",Taches!F39="TOUS"),Taches!E39,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f>IF(OR(Taches!F40="Théo",Taches!F40="TOUS"),Taches!E40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>IF(OR(Taches!F40="Nils",Taches!F40="TOUS"),Taches!E40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f>IF(OR(Taches!F40="Dorian",Taches!F40="TOUS"),Taches!E40,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f>IF(OR(Taches!F41="Théo",Taches!F41="TOUS"),Taches!E41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>IF(OR(Taches!F41="Nils",Taches!F41="TOUS"),Taches!E41,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <f>IF(OR(Taches!F41="Dorian",Taches!F41="TOUS"),Taches!E41,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f>IF(OR(Taches!F42="Théo",Taches!F42="TOUS"),Taches!E42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f>IF(OR(Taches!F42="Nils",Taches!F42="TOUS"),Taches!E42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>IF(OR(Taches!F42="Dorian",Taches!F42="TOUS"),Taches!E42,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f>IF(OR(Taches!F43="Théo",Taches!F43="TOUS"),Taches!E43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>IF(OR(Taches!F43="Nils",Taches!F43="TOUS"),Taches!E43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>IF(OR(Taches!F43="Dorian",Taches!F43="TOUS"),Taches!E43,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f>IF(OR(Taches!F44="Théo",Taches!F44="TOUS"),Taches!E44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>IF(OR(Taches!F44="Nils",Taches!F44="TOUS"),Taches!E44,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <f>IF(OR(Taches!F44="Dorian",Taches!F44="TOUS"),Taches!E44,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f>IF(OR(Taches!F45="Théo",Taches!F45="TOUS"),Taches!E45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>IF(OR(Taches!F45="Nils",Taches!F45="TOUS"),Taches!E45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>IF(OR(Taches!F45="Dorian",Taches!F45="TOUS"),Taches!E45,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f>IF(OR(Taches!F46="Théo",Taches!F46="TOUS"),Taches!E46,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>IF(OR(Taches!F46="Nils",Taches!F46="TOUS"),Taches!E46,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>IF(OR(Taches!F46="Dorian",Taches!F46="TOUS"),Taches!E46,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f>IF(OR(Taches!F47="Théo",Taches!F47="TOUS"),Taches!E47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>IF(OR(Taches!F47="Nils",Taches!F47="TOUS"),Taches!E47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>IF(OR(Taches!F47="Dorian",Taches!F47="TOUS"),Taches!E47,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f>IF(OR(Taches!F48="Théo",Taches!F48="TOUS"),Taches!E48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>IF(OR(Taches!F48="Nils",Taches!F48="TOUS"),Taches!E48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>IF(OR(Taches!F48="Dorian",Taches!F48="TOUS"),Taches!E48,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <f>IF(OR(Taches!F49="Théo",Taches!F49="TOUS"),Taches!E49,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>IF(OR(Taches!F49="Nils",Taches!F49="TOUS"),Taches!E49,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <f>IF(OR(Taches!F49="Dorian",Taches!F49="TOUS"),Taches!E49,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f>IF(OR(Taches!F50="Théo",Taches!F50="TOUS"),Taches!E50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>IF(OR(Taches!F50="Nils",Taches!F50="TOUS"),Taches!E50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>IF(OR(Taches!F50="Dorian",Taches!F50="TOUS"),Taches!E50,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f>IF(OR(Taches!F51="Théo",Taches!F51="TOUS"),Taches!E51,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>IF(OR(Taches!F51="Nils",Taches!F51="TOUS"),Taches!E51,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>IF(OR(Taches!F51="Dorian",Taches!F51="TOUS"),Taches!E51,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f>IF(OR(Taches!F52="Théo",Taches!F52="TOUS"),Taches!E52,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>IF(OR(Taches!F52="Nils",Taches!F52="TOUS"),Taches!E52,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>IF(OR(Taches!F52="Dorian",Taches!F52="TOUS"),Taches!E52,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f>IF(OR(Taches!F53="Théo",Taches!F53="TOUS"),Taches!E53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>IF(OR(Taches!F53="Nils",Taches!F53="TOUS"),Taches!E53,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <f>IF(OR(Taches!F53="Dorian",Taches!F53="TOUS"),Taches!E53,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f>IF(OR(Taches!F54="Théo",Taches!F54="TOUS"),Taches!E54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f>IF(OR(Taches!F54="Nils",Taches!F54="TOUS"),Taches!E54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>IF(OR(Taches!F54="Dorian",Taches!F54="TOUS"),Taches!E54,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f>IF(OR(Taches!F55="Théo",Taches!F55="TOUS"),Taches!E55,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>IF(OR(Taches!F55="Nils",Taches!F55="TOUS"),Taches!E55,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>IF(OR(Taches!F55="Dorian",Taches!F55="TOUS"),Taches!E55,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f>IF(OR(Taches!F56="Théo",Taches!F56="TOUS"),Taches!E56,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>IF(OR(Taches!F56="Nils",Taches!F56="TOUS"),Taches!E56,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <f>IF(OR(Taches!F56="Dorian",Taches!F56="TOUS"),Taches!E56,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f>IF(OR(Taches!F57="Théo",Taches!F57="TOUS"),Taches!E57,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f>IF(OR(Taches!F57="Nils",Taches!F57="TOUS"),Taches!E57,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>IF(OR(Taches!F57="Dorian",Taches!F57="TOUS"),Taches!E57,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f>IF(OR(Taches!F58="Théo",Taches!F58="TOUS"),Taches!E58,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>IF(OR(Taches!F58="Nils",Taches!F58="TOUS"),Taches!E58,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>IF(OR(Taches!F58="Dorian",Taches!F58="TOUS"),Taches!E58,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <f>IF(OR(Taches!F59="Théo",Taches!F59="TOUS"),Taches!E59,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>IF(OR(Taches!F59="Nils",Taches!F59="TOUS"),Taches!E59,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <f>IF(OR(Taches!F59="Dorian",Taches!F59="TOUS"),Taches!E59,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f>IF(OR(Taches!F60="Théo",Taches!F60="TOUS"),Taches!E60,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>IF(OR(Taches!F60="Nils",Taches!F60="TOUS"),Taches!E60,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>IF(OR(Taches!F60="Dorian",Taches!F60="TOUS"),Taches!E60,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f>IF(OR(Taches!F61="Théo",Taches!F61="TOUS"),Taches!E61,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>IF(OR(Taches!F61="Nils",Taches!F61="TOUS"),Taches!E61,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>IF(OR(Taches!F61="Dorian",Taches!F61="TOUS"),Taches!E61,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f>IF(OR(Taches!F62="Théo",Taches!F62="TOUS"),Taches!E62,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <f>IF(OR(Taches!F62="Nils",Taches!F62="TOUS"),Taches!E62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>IF(OR(Taches!F62="Dorian",Taches!F62="TOUS"),Taches!E62,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f>IF(OR(Taches!F63="Théo",Taches!F63="TOUS"),Taches!E63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>IF(OR(Taches!F63="Nils",Taches!F63="TOUS"),Taches!E63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>IF(OR(Taches!F63="Dorian",Taches!F63="TOUS"),Taches!E63,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <f>IF(OR(Taches!F64="Théo",Taches!F64="TOUS"),Taches!E64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>IF(OR(Taches!F64="Nils",Taches!F64="TOUS"),Taches!E64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>IF(OR(Taches!F64="Dorian",Taches!F64="TOUS"),Taches!E64,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <f>IF(OR(Taches!F65="Théo",Taches!F65="TOUS"),Taches!E65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>IF(OR(Taches!F65="Nils",Taches!F65="TOUS"),Taches!E65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f>IF(OR(Taches!F65="Dorian",Taches!F65="TOUS"),Taches!E65,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <f>IF(OR(Taches!F66="Théo",Taches!F66="TOUS"),Taches!E66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f>IF(OR(Taches!F66="Nils",Taches!F66="TOUS"),Taches!E66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f>IF(OR(Taches!F66="Dorian",Taches!F66="TOUS"),Taches!E66,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <f>IF(OR(Taches!F67="Théo",Taches!F67="TOUS"),Taches!E67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>IF(OR(Taches!F67="Nils",Taches!F67="TOUS"),Taches!E67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>IF(OR(Taches!F67="Dorian",Taches!F67="TOUS"),Taches!E67,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f>IF(OR(Taches!F68="Théo",Taches!F68="TOUS"),Taches!E68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>IF(OR(Taches!F68="Nils",Taches!F68="TOUS"),Taches!E68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f>IF(OR(Taches!F68="Dorian",Taches!F68="TOUS"),Taches!E68,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f>IF(OR(Taches!F69="Théo",Taches!F69="TOUS"),Taches!E69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>IF(OR(Taches!F69="Nils",Taches!F69="TOUS"),Taches!E69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f>IF(OR(Taches!F69="Dorian",Taches!F69="TOUS"),Taches!E69,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <f>IF(OR(Taches!F70="Théo",Taches!F70="TOUS"),Taches!E70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f>IF(OR(Taches!F70="Nils",Taches!F70="TOUS"),Taches!E70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f>IF(OR(Taches!F70="Dorian",Taches!F70="TOUS"),Taches!E70,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <f>IF(OR(Taches!F71="Théo",Taches!F71="TOUS"),Taches!E71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>IF(OR(Taches!F71="Nils",Taches!F71="TOUS"),Taches!E71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f>IF(OR(Taches!F71="Dorian",Taches!F71="TOUS"),Taches!E71,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <f>IF(OR(Taches!F72="Théo",Taches!F72="TOUS"),Taches!E72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f>IF(OR(Taches!F72="Nils",Taches!F72="TOUS"),Taches!E72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f>IF(OR(Taches!F72="Dorian",Taches!F72="TOUS"),Taches!E72,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <f>IF(OR(Taches!F73="Théo",Taches!F73="TOUS"),Taches!E73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f>IF(OR(Taches!F73="Nils",Taches!F73="TOUS"),Taches!E73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f>IF(OR(Taches!F73="Dorian",Taches!F73="TOUS"),Taches!E73,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <f>IF(OR(Taches!F74="Théo",Taches!F74="TOUS"),Taches!E74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f>IF(OR(Taches!F74="Nils",Taches!F74="TOUS"),Taches!E74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f>IF(OR(Taches!F74="Dorian",Taches!F74="TOUS"),Taches!E74,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <f>IF(OR(Taches!F75="Théo",Taches!F75="TOUS"),Taches!E75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f>IF(OR(Taches!F75="Nils",Taches!F75="TOUS"),Taches!E75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f>IF(OR(Taches!F75="Dorian",Taches!F75="TOUS"),Taches!E75,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <f>IF(OR(Taches!F76="Théo",Taches!F76="TOUS"),Taches!E76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f>IF(OR(Taches!F76="Nils",Taches!F76="TOUS"),Taches!E76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f>IF(OR(Taches!F76="Dorian",Taches!F76="TOUS"),Taches!E76,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <f>IF(OR(Taches!F77="Théo",Taches!F77="TOUS"),Taches!E77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f>IF(OR(Taches!F77="Nils",Taches!F77="TOUS"),Taches!E77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f>IF(OR(Taches!F77="Dorian",Taches!F77="TOUS"),Taches!E77,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <f>IF(OR(Taches!F78="Théo",Taches!F78="TOUS"),Taches!E78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>IF(OR(Taches!F78="Nils",Taches!F78="TOUS"),Taches!E78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f>IF(OR(Taches!F78="Dorian",Taches!F78="TOUS"),Taches!E78,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <f>IF(OR(Taches!F79="Théo",Taches!F79="TOUS"),Taches!E79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f>IF(OR(Taches!F79="Nils",Taches!F79="TOUS"),Taches!E79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f>IF(OR(Taches!F79="Dorian",Taches!F79="TOUS"),Taches!E79,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <f>IF(OR(Taches!F80="Théo",Taches!F80="TOUS"),Taches!E80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f>IF(OR(Taches!F80="Nils",Taches!F80="TOUS"),Taches!E80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f>IF(OR(Taches!F80="Dorian",Taches!F80="TOUS"),Taches!E80,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <f>IF(OR(Taches!F81="Théo",Taches!F81="TOUS"),Taches!E81,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <f>IF(OR(Taches!F81="Nils",Taches!F81="TOUS"),Taches!E81,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <f>IF(OR(Taches!F81="Dorian",Taches!F81="TOUS"),Taches!E81,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <f>IF(OR(Taches!F82="Théo",Taches!F82="TOUS"),Taches!E82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f>IF(OR(Taches!F82="Nils",Taches!F82="TOUS"),Taches!E82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f>IF(OR(Taches!F82="Dorian",Taches!F82="TOUS"),Taches!E82,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <f>IF(OR(Taches!F83="Théo",Taches!F83="TOUS"),Taches!E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f>IF(OR(Taches!F83="Nils",Taches!F83="TOUS"),Taches!E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f>IF(OR(Taches!F83="Dorian",Taches!F83="TOUS"),Taches!E83,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <f>IF(OR(Taches!F84="Théo",Taches!F84="TOUS"),Taches!E84,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f>IF(OR(Taches!F84="Nils",Taches!F84="TOUS"),Taches!E84,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f>IF(OR(Taches!F84="Dorian",Taches!F84="TOUS"),Taches!E84,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <f>IF(OR(Taches!F85="Théo",Taches!F85="TOUS"),Taches!E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f>IF(OR(Taches!F85="Nils",Taches!F85="TOUS"),Taches!E85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f>IF(OR(Taches!F85="Dorian",Taches!F85="TOUS"),Taches!E85,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <f>IF(OR(Taches!F86="Théo",Taches!F86="TOUS"),Taches!E86,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f>IF(OR(Taches!F86="Nils",Taches!F86="TOUS"),Taches!E86,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f>IF(OR(Taches!F86="Dorian",Taches!F86="TOUS"),Taches!E86,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <f>IF(OR(Taches!F87="Théo",Taches!F87="TOUS"),Taches!E87,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f>IF(OR(Taches!F87="Nils",Taches!F87="TOUS"),Taches!E87,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f>IF(OR(Taches!F87="Dorian",Taches!F87="TOUS"),Taches!E87,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <f>IF(OR(Taches!F88="Théo",Taches!F88="TOUS"),Taches!E88,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f>IF(OR(Taches!F88="Nils",Taches!F88="TOUS"),Taches!E88,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f>IF(OR(Taches!F88="Dorian",Taches!F88="TOUS"),Taches!E88,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <f>IF(OR(Taches!F89="Théo",Taches!F89="TOUS"),Taches!E89,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f>IF(OR(Taches!F89="Nils",Taches!F89="TOUS"),Taches!E89,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f>IF(OR(Taches!F89="Dorian",Taches!F89="TOUS"),Taches!E89,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <f>IF(OR(Taches!F90="Théo",Taches!F90="TOUS"),Taches!E90,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f>IF(OR(Taches!F90="Nils",Taches!F90="TOUS"),Taches!E90,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f>IF(OR(Taches!F90="Dorian",Taches!F90="TOUS"),Taches!E90,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <f>IF(OR(Taches!F91="Théo",Taches!F91="TOUS"),Taches!E91,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <f>IF(OR(Taches!F91="Nils",Taches!F91="TOUS"),Taches!E91,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <f>IF(OR(Taches!F91="Dorian",Taches!F91="TOUS"),Taches!E91,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <f>IF(OR(Taches!F92="Théo",Taches!F92="TOUS"),Taches!E92,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <f>IF(OR(Taches!F92="Nils",Taches!F92="TOUS"),Taches!E92,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <f>IF(OR(Taches!F92="Dorian",Taches!F92="TOUS"),Taches!E92,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <f>IF(OR(Taches!F93="Théo",Taches!F93="TOUS"),Taches!E93,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <f>IF(OR(Taches!F93="Nils",Taches!F93="TOUS"),Taches!E93,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f>IF(OR(Taches!F93="Dorian",Taches!F93="TOUS"),Taches!E93,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <f>IF(OR(Taches!F94="Théo",Taches!F94="TOUS"),Taches!E94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <f>IF(OR(Taches!F94="Nils",Taches!F94="TOUS"),Taches!E94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f>IF(OR(Taches!F94="Dorian",Taches!F94="TOUS"),Taches!E94,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H13"/>
   <sheetViews>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22540" windowHeight="11430" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22540" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Taches" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>Avancement</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Jour</t>
-  </si>
-  <si>
-    <t>Nom de votre projet</t>
   </si>
   <si>
     <t>Dorian</t>
@@ -451,6 +448,12 @@
   </si>
   <si>
     <t>Dorian Tot</t>
+  </si>
+  <si>
+    <t>Aqua-Guardian</t>
+  </si>
+  <si>
+    <t>Avancement Projet</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -675,6 +678,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Date" xfId="8"/>
@@ -1067,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1083,11 +1087,12 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.453125" customWidth="1"/>
     <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1097,8 +1102,8 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:11" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1123,133 +1128,140 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K3" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5">
         <v>0.85</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15">
+        <f>AVERAGE(G4:G81)</f>
+        <v>0.38525641025641028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="4" t="s">
@@ -1259,21 +1271,21 @@
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="4" t="s">
@@ -1283,20 +1295,22 @@
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
@@ -1304,14 +1318,20 @@
       <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="4" t="s">
@@ -1321,13 +1341,15 @@
         <v>34</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="4" t="s">
@@ -1337,13 +1359,15 @@
         <v>5</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="4" t="s">
@@ -1353,13 +1377,15 @@
         <v>5</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="4" t="s">
@@ -1369,15 +1395,17 @@
         <v>13</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="4" t="s">
@@ -1387,15 +1415,19 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="4" t="s">
@@ -1404,14 +1436,20 @@
       <c r="E17" s="4">
         <v>3</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="4" t="s">
@@ -1421,15 +1459,17 @@
         <v>21</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="4" t="s">
@@ -1439,15 +1479,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="4" t="s">
@@ -1456,14 +1500,20 @@
       <c r="E20" s="4">
         <v>3</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="4" t="s">
@@ -1473,13 +1523,15 @@
         <v>21</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="4" t="s">
@@ -1489,15 +1541,17 @@
         <v>8</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="4" t="s">
@@ -1507,15 +1561,19 @@
         <v>3</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="4" t="s">
@@ -1524,14 +1582,20 @@
       <c r="E24" s="4">
         <v>5</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="4" t="s">
@@ -1541,13 +1605,15 @@
         <v>8</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="4" t="s">
@@ -1557,15 +1623,17 @@
         <v>13</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
@@ -1575,15 +1643,19 @@
         <v>8</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="4" t="s">
@@ -1592,14 +1664,20 @@
       <c r="E28" s="4">
         <v>2</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="4" t="s">
@@ -1609,13 +1687,15 @@
         <v>3</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4" t="s">
@@ -1625,15 +1705,17 @@
         <v>13</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="4" t="s">
@@ -1643,15 +1725,19 @@
         <v>3</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="4" t="s">
@@ -1660,14 +1746,20 @@
       <c r="E32" s="4">
         <v>5</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="4" t="s">
@@ -1677,13 +1769,15 @@
         <v>13</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="4" t="s">
@@ -1693,13 +1787,15 @@
         <v>21</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="4" t="s">
@@ -1709,15 +1805,17 @@
         <v>8</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="4" t="s">
@@ -1727,15 +1825,19 @@
         <v>3</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="4" t="s">
@@ -1745,25 +1847,27 @@
         <v>8</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="4">
         <v>5</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" s="5">
         <v>0.5</v>
@@ -1773,17 +1877,17 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="4">
         <v>3</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" s="5">
         <v>0.25</v>
@@ -1793,7 +1897,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="4" t="s">
@@ -1802,16 +1906,20 @@
       <c r="E40" s="4">
         <v>2</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
+      <c r="F40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="4" t="s">
@@ -1821,17 +1929,19 @@
         <v>3</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="4" t="s">
@@ -1840,14 +1950,18 @@
       <c r="E42" s="4">
         <v>3</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
+      <c r="F42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="4" t="s">
@@ -1857,15 +1971,17 @@
         <v>8</v>
       </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="4" t="s">
@@ -1875,17 +1991,19 @@
         <v>2</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="4" t="s">
@@ -1894,14 +2012,20 @@
       <c r="E45" s="4">
         <v>3</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="4" t="s">
@@ -1911,13 +2035,15 @@
         <v>5</v>
       </c>
       <c r="F46" s="4"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="4" t="s">
@@ -1927,13 +2053,15 @@
         <v>34</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="4" t="s">
@@ -1943,15 +2071,17 @@
         <v>8</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="5"/>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="4" t="s">
@@ -1961,17 +2091,19 @@
         <v>2</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" s="5">
         <v>1</v>
       </c>
-      <c r="H49" s="4"/>
+      <c r="H49" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="4" t="s">
@@ -1980,14 +2112,20 @@
       <c r="E50" s="4">
         <v>3</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="5">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="4" t="s">
@@ -1997,13 +2135,15 @@
         <v>5</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="4" t="s">
@@ -2013,15 +2153,17 @@
         <v>8</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="4" t="s">
@@ -2031,17 +2173,19 @@
         <v>3</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" s="5">
         <v>1</v>
       </c>
-      <c r="H53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="4" t="s">
@@ -2050,14 +2194,20 @@
       <c r="E54" s="4">
         <v>3</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="5">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="4" t="s">
@@ -2067,15 +2217,17 @@
         <v>8</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="5"/>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="4" t="s">
@@ -2085,17 +2237,19 @@
         <v>3</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G56" s="5">
         <v>1</v>
       </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="4" t="s">
@@ -2105,13 +2259,15 @@
         <v>5</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="5"/>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="4" t="s">
@@ -2121,15 +2277,17 @@
         <v>8</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="5"/>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="4" t="s">
@@ -2139,17 +2297,19 @@
         <v>2</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59" s="5">
         <v>1</v>
       </c>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="4" t="s">
@@ -2159,13 +2319,15 @@
         <v>5</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="5"/>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="4" t="s">
@@ -2175,35 +2337,39 @@
         <v>8</v>
       </c>
       <c r="F61" s="4"/>
-      <c r="G61" s="5"/>
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E62" s="4">
         <v>8</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G62" s="5">
         <v>1</v>
       </c>
-      <c r="H62" s="4"/>
+      <c r="H62" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="4" t="s">
@@ -2213,13 +2379,15 @@
         <v>5</v>
       </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="5"/>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="4" t="s">
@@ -2229,15 +2397,17 @@
         <v>21</v>
       </c>
       <c r="F64" s="4"/>
-      <c r="G64" s="5"/>
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="4" t="s">
@@ -2247,13 +2417,15 @@
         <v>8</v>
       </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="5"/>
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="4" t="s">
@@ -2263,15 +2435,17 @@
         <v>13</v>
       </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="5"/>
+      <c r="G66" s="5">
+        <v>0</v>
+      </c>
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="4" t="s">
@@ -2281,13 +2455,15 @@
         <v>13</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="5"/>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="4" t="s">
@@ -2297,15 +2473,17 @@
         <v>21</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="5"/>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="4" t="s">
@@ -2315,13 +2493,15 @@
         <v>13</v>
       </c>
       <c r="F69" s="4"/>
-      <c r="G69" s="5"/>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="4" t="s">
@@ -2331,15 +2511,17 @@
         <v>21</v>
       </c>
       <c r="F70" s="4"/>
-      <c r="G70" s="5"/>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="4" t="s">
@@ -2349,13 +2531,15 @@
         <v>5</v>
       </c>
       <c r="F71" s="4"/>
-      <c r="G71" s="5"/>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
       <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="4" t="s">
@@ -2365,15 +2549,17 @@
         <v>8</v>
       </c>
       <c r="F72" s="4"/>
-      <c r="G72" s="5"/>
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="4" t="s">
@@ -2383,13 +2569,15 @@
         <v>5</v>
       </c>
       <c r="F73" s="4"/>
-      <c r="G73" s="5"/>
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="4" t="s">
@@ -2399,15 +2587,17 @@
         <v>5</v>
       </c>
       <c r="F74" s="4"/>
-      <c r="G74" s="5"/>
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
       <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="4" t="s">
@@ -2417,13 +2607,15 @@
         <v>5</v>
       </c>
       <c r="F75" s="4"/>
-      <c r="G75" s="5"/>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
       <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="4" t="s">
@@ -2433,15 +2625,17 @@
         <v>8</v>
       </c>
       <c r="F76" s="4"/>
-      <c r="G76" s="5"/>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="4" t="s">
@@ -2451,13 +2645,15 @@
         <v>13</v>
       </c>
       <c r="F77" s="4"/>
-      <c r="G77" s="5"/>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
       <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="4" t="s">
@@ -2467,15 +2663,17 @@
         <v>8</v>
       </c>
       <c r="F78" s="4"/>
-      <c r="G78" s="5"/>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="4" t="s">
@@ -2485,13 +2683,15 @@
         <v>13</v>
       </c>
       <c r="F79" s="4"/>
-      <c r="G79" s="5"/>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="4" t="s">
@@ -2501,28 +2701,34 @@
         <v>13</v>
       </c>
       <c r="F80" s="4"/>
-      <c r="G80" s="5"/>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
       <c r="H80" s="4"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
@@ -2748,19 +2954,19 @@
           <x14:formula1>
             <xm:f>DATA!$F$5:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D87:D93 D4:D82 D83:D86</xm:sqref>
+          <xm:sqref>D4:D93</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$B$5:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E87:E93 E4:E82 E83:E86</xm:sqref>
+          <xm:sqref>E4:E93</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$D$5:$D$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F87:F93 F4:F82 F83:F86</xm:sqref>
+          <xm:sqref>F4:F93</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -2778,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2787,24 +2993,24 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1">
         <f>IF(OR(Taches!F4="Théo",Taches!F4="TOUS"),Taches!E4,0)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1">
         <f>IF(OR(Taches!F4="Nils",Taches!F4="TOUS"),Taches!E4,0)</f>
         <v>0</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1">
         <f>IF(OR(Taches!F4="Dorian",Taches!F4="TOUS"),Taches!E4,0)</f>
         <v>0</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2814,7 +3020,7 @@
       </c>
       <c r="B2" s="14">
         <f>SUM(A1:A91)</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <f>IF(OR(Taches!F5="Nils",Taches!F5="TOUS"),Taches!E5,0)</f>
@@ -2822,7 +3028,7 @@
       </c>
       <c r="D2" s="14">
         <f>SUM(C1:C91)</f>
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <f>IF(OR(Taches!F5="Dorian",Taches!F5="TOUS"),Taches!E5,0)</f>
@@ -2830,7 +3036,7 @@
       </c>
       <c r="F2" s="14">
         <f>SUM(E1:E91)</f>
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2914,7 +3120,7 @@
       </c>
       <c r="E8">
         <f>IF(OR(Taches!F11="Dorian",Taches!F11="TOUS"),Taches!E11,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -2998,7 +3204,7 @@
       </c>
       <c r="E14">
         <f>IF(OR(Taches!F17="Dorian",Taches!F17="TOUS"),Taches!E17,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -3040,7 +3246,7 @@
       </c>
       <c r="E17">
         <f>IF(OR(Taches!F20="Dorian",Taches!F20="TOUS"),Taches!E20,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -3096,7 +3302,7 @@
       </c>
       <c r="E21">
         <f>IF(OR(Taches!F24="Dorian",Taches!F24="TOUS"),Taches!E24,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -3152,7 +3358,7 @@
       </c>
       <c r="E25">
         <f>IF(OR(Taches!F28="Dorian",Taches!F28="TOUS"),Taches!E28,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -3208,7 +3414,7 @@
       </c>
       <c r="E29">
         <f>IF(OR(Taches!F32="Dorian",Taches!F32="TOUS"),Taches!E32,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -3320,7 +3526,7 @@
       </c>
       <c r="E37">
         <f>IF(OR(Taches!F40="Dorian",Taches!F40="TOUS"),Taches!E40,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -3344,7 +3550,7 @@
       </c>
       <c r="C39">
         <f>IF(OR(Taches!F42="Nils",Taches!F42="TOUS"),Taches!E42,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <f>IF(OR(Taches!F42="Dorian",Taches!F42="TOUS"),Taches!E42,0)</f>
@@ -3386,7 +3592,7 @@
       </c>
       <c r="C42">
         <f>IF(OR(Taches!F45="Nils",Taches!F45="TOUS"),Taches!E45,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <f>IF(OR(Taches!F45="Dorian",Taches!F45="TOUS"),Taches!E45,0)</f>
@@ -3456,7 +3662,7 @@
       </c>
       <c r="C47">
         <f>IF(OR(Taches!F50="Nils",Taches!F50="TOUS"),Taches!E50,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <f>IF(OR(Taches!F50="Dorian",Taches!F50="TOUS"),Taches!E50,0)</f>
@@ -3512,7 +3718,7 @@
       </c>
       <c r="C51">
         <f>IF(OR(Taches!F54="Nils",Taches!F54="TOUS"),Taches!E54,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <f>IF(OR(Taches!F54="Dorian",Taches!F54="TOUS"),Taches!E54,0)</f>
@@ -3886,15 +4092,15 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <f>IF(OR(Taches!F81="Théo",Taches!F81="TOUS"),Taches!E81,0)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C78">
         <f>IF(OR(Taches!F81="Nils",Taches!F81="TOUS"),Taches!E81,0)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E78">
         <f>IF(OR(Taches!F81="Dorian",Taches!F81="TOUS"),Taches!E81,0)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -4116,13 +4322,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -4130,13 +4336,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
@@ -4144,13 +4350,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -4158,13 +4364,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
@@ -4172,10 +4378,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
@@ -4186,7 +4392,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
